--- a/Test Case for Excel Technologies Ltd - Mithu Roy.xlsx
+++ b/Test Case for Excel Technologies Ltd - Mithu Roy.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Station For Manual Testing\Working\ArcOne Mobile App Manual Testing- Mithu Roy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A7AA76-71D8-4933-8529-235CF4E0A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FE478-C312-4C63-B217-A6648E27DDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Property Listing" sheetId="3" r:id="rId2"/>
-    <sheet name="Bug Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Report" sheetId="7" r:id="rId4"/>
+    <sheet name="Test Report" sheetId="7" r:id="rId1"/>
+    <sheet name="Test Scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Property Listing" sheetId="3" r:id="rId3"/>
+    <sheet name="Bug Report" sheetId="5" r:id="rId4"/>
     <sheet name="Pivot" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -1106,7 +1106,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,84 +1204,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1355,60 +1285,82 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,22 +1372,57 @@
     <xf numFmtId="0" fontId="35" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1522,15 +1509,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Test Case Report</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Cases Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1539,7 +1519,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81782633420822393"/>
+          <c:x val="0.38693807718479639"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -1573,76 +1553,132 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-30CD-4733-919B-7D7F71DDAB67}"/>
+                <c16:uniqueId val="{00000003-F02B-429F-8FE9-9E3433F4EB0C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-30CD-4733-919B-7D7F71DDAB67}"/>
+                <c16:uniqueId val="{00000001-F02B-429F-8FE9-9E3433F4EB0C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-30CD-4733-919B-7D7F71DDAB67}"/>
+                <c16:uniqueId val="{00000002-F02B-429F-8FE9-9E3433F4EB0C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Test Report'!$F$12:$H$12</c:f>
+              <c:f>'Test Report'!$D$14:$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1659,25 +1695,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Test Report'!$F$13:$H$13</c:f>
+              <c:f>'Test Report'!$D$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-30CD-4733-919B-7D7F71DDAB67}"/>
+              <c16:uniqueId val="{00000000-F02B-429F-8FE9-9E3433F4EB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1688,10 +1724,114 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="536944192"/>
+        <c:axId val="536944552"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="536944192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536944552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536944552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536944192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1700,40 +1840,16 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1809,7 +1925,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1832,17 +1948,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1866,7 +1971,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1917,13 +2022,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1934,19 +2032,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1984,7 +2075,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2332,28 +2423,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCBC616-6B12-4370-92EA-BD8DEDD1BB3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F593AA-5D7F-9591-7A47-0F4351A77D47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2394,8 +2483,8 @@
       <sheetName val="Template"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="12">
           <cell r="F12" t="str">
@@ -2469,11 +2558,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2676,6 +2765,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10EBA71-3C1B-488B-9B88-EB5B1BEAF284}">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" ht="13.5" thickBot="1"/>
+    <row r="5" spans="3:7" ht="32.25" thickBot="1">
+      <c r="C5" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="123"/>
+    </row>
+    <row r="7" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="123"/>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C8" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123"/>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C9" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C11" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+    </row>
+    <row r="12" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C12" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+    </row>
+    <row r="13" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75">
+      <c r="C14" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="15">
+      <c r="C15" s="45"/>
+      <c r="D15" s="46">
+        <f>COUNTIF('Property Listing'!I:I, "Pass")</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="47">
+        <f>COUNTIF('Property Listing'!I:I, Fail)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="48">
+        <f>COUNTIF('Property Listing'!I:I, Wrong)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="49">
+        <f>SUM(D15:F15)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="19.5" thickBot="1">
+      <c r="C16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="51">
+        <f>D15</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="52">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="51">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="53">
+        <f>G15</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2708,60 +2978,60 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="1"/>
@@ -2819,24 +3089,24 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="3:4" ht="15.75" customHeight="1">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2857,17 +3127,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:O1008"/>
+  <dimension ref="C3:L1008"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD8"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2881,79 +3150,79 @@
     <col min="9" max="9" width="13.140625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="15.75" customHeight="1">
+    <row r="3" spans="3:12" ht="15.75" customHeight="1">
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="73"/>
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="3:15" ht="15.75" customHeight="1">
+    <row r="4" spans="3:12" ht="15.75" customHeight="1">
       <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="73"/>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="3:15" ht="15.75" customHeight="1">
+    <row r="5" spans="3:12" ht="15.75" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="73"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="3:15" ht="15.75" customHeight="1">
+    <row r="6" spans="3:12" ht="15.75" customHeight="1">
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="73"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="3:15" ht="15.75" customHeight="1">
+    <row r="7" spans="3:12" ht="15.75" customHeight="1">
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="74"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="3:15" ht="15.75" customHeight="1">
+    <row r="8" spans="3:12" ht="15.75" customHeight="1">
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="73"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="3:15" ht="15.75" customHeight="1">
+    <row r="9" spans="3:12" ht="15.75" customHeight="1">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2961,7 +3230,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="3:15" ht="15.75" customHeight="1">
+    <row r="10" spans="3:12" ht="15.75" customHeight="1">
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2981,17 +3250,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="22.5" customHeight="1">
+    <row r="11" spans="3:12" ht="22.5" customHeight="1">
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="68" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="69" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -3002,156 +3271,153 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="3:15" ht="22.5" customHeight="1">
+    <row r="12" spans="3:12" ht="22.5" customHeight="1">
       <c r="C12" s="11"/>
-      <c r="D12" s="125"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="126"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="3:15" ht="30" customHeight="1">
-      <c r="C13" s="82" t="s">
+    <row r="13" spans="3:12" ht="30" customHeight="1">
+      <c r="C13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-    </row>
-    <row r="14" spans="3:15" ht="102" customHeight="1">
-      <c r="C14" s="86" t="s">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="3:12" ht="102" customHeight="1">
+      <c r="C14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="133.5" customHeight="1">
-      <c r="C15" s="86" t="s">
+    <row r="15" spans="3:12" ht="133.5" customHeight="1">
+      <c r="C15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="149.25" customHeight="1">
-      <c r="C16" s="86" t="s">
+    <row r="16" spans="3:12" ht="149.25" customHeight="1">
+      <c r="C16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="114.75" customHeight="1">
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="103.5" customHeight="1">
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="90" t="s">
+      <c r="H18" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="64" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12098,16 +12364,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C2:T77"/>
+  <dimension ref="C2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:J52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12126,1348 +12392,788 @@
     <col min="16" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="15.75" customHeight="1">
+    <row r="2" spans="3:14" ht="15.75" customHeight="1">
       <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="73"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="3:19" ht="15.75" customHeight="1">
+    <row r="3" spans="3:14" ht="15.75" customHeight="1">
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="73"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="3:19" ht="31.5" customHeight="1">
+    <row r="4" spans="3:14" ht="31.5" customHeight="1">
       <c r="C4" s="1"/>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="3:19" ht="15.75" customHeight="1">
+    <row r="5" spans="3:14" ht="15.75" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="73"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="3:19" ht="15.75" customHeight="1">
+    <row r="6" spans="3:14" ht="15.75" customHeight="1">
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="74"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:19" ht="15.75" customHeight="1">
+    <row r="7" spans="3:14" ht="15.75" customHeight="1">
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="73"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:19" ht="15.75" customHeight="1">
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="9" spans="3:19" ht="12.75" customHeight="1">
-      <c r="D9" s="116" t="s">
+    <row r="9" spans="3:14" ht="12.75" customHeight="1">
+      <c r="D9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="H9" s="116" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="H9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-    </row>
-    <row r="10" spans="3:19" ht="8.25" customHeight="1">
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="5.25" customHeight="1">
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-    </row>
-    <row r="12" spans="3:19" ht="20.25" customHeight="1">
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+    </row>
+    <row r="10" spans="3:14" ht="8.25" customHeight="1">
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+    </row>
+    <row r="11" spans="3:14" ht="5.25" customHeight="1">
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+    </row>
+    <row r="12" spans="3:14" ht="20.25" customHeight="1">
       <c r="D12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="96"/>
       <c r="H12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-    </row>
-    <row r="13" spans="3:19" ht="41.25" customHeight="1">
+      <c r="J12" s="96"/>
+    </row>
+    <row r="13" spans="3:14" ht="41.25" customHeight="1">
       <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="96"/>
       <c r="H13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-    </row>
-    <row r="14" spans="3:19" ht="19.5" customHeight="1">
+      <c r="J13" s="96"/>
+    </row>
+    <row r="14" spans="3:14" ht="19.5" customHeight="1">
       <c r="D14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="96"/>
       <c r="H14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="43"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-    </row>
-    <row r="15" spans="3:19" ht="15" customHeight="1">
+      <c r="I14" s="107"/>
+      <c r="J14" s="96"/>
+    </row>
+    <row r="15" spans="3:14" ht="15" customHeight="1">
       <c r="D15" s="22"/>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="96"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-    </row>
-    <row r="16" spans="3:19" ht="15">
+      <c r="J15" s="96"/>
+    </row>
+    <row r="16" spans="3:14" ht="15">
       <c r="D16" s="22"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="96"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="43"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-    </row>
-    <row r="17" spans="4:20" ht="80.25" customHeight="1">
+      <c r="I16" s="72"/>
+      <c r="J16" s="96"/>
+    </row>
+    <row r="17" spans="4:19" ht="80.25" customHeight="1">
       <c r="D17" s="22"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="96"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="43"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-    </row>
-    <row r="18" spans="4:20" ht="61.5" customHeight="1">
+      <c r="I17" s="72"/>
+      <c r="J17" s="96"/>
+    </row>
+    <row r="18" spans="4:19" ht="61.5" customHeight="1">
       <c r="D18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="109"/>
       <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="94"/>
-    </row>
-    <row r="19" spans="4:20" ht="73.5" customHeight="1">
+      <c r="J18" s="96"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="78"/>
+    </row>
+    <row r="19" spans="4:19" ht="73.5" customHeight="1">
       <c r="D19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="81"/>
       <c r="H19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-    </row>
-    <row r="20" spans="4:20" ht="45" customHeight="1">
+      <c r="J19" s="96"/>
+    </row>
+    <row r="20" spans="4:19" ht="45" customHeight="1">
       <c r="D20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="110"/>
       <c r="H20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-    </row>
-    <row r="21" spans="4:20" ht="21" customHeight="1">
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-    </row>
-    <row r="22" spans="4:20" ht="15.75" customHeight="1">
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-    </row>
-    <row r="23" spans="4:20" ht="15.75" customHeight="1">
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-    </row>
-    <row r="24" spans="4:20" ht="12.75" customHeight="1">
-      <c r="D24" s="116" t="s">
+      <c r="J20" s="110"/>
+    </row>
+    <row r="21" spans="4:19" ht="21" customHeight="1"/>
+    <row r="24" spans="4:19" ht="12.75" customHeight="1">
+      <c r="D24" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="H24" s="116" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="H24" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-    </row>
-    <row r="25" spans="4:20" ht="12.75">
-      <c r="D25" s="119"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-    </row>
-    <row r="26" spans="4:20" ht="12.75">
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-    </row>
-    <row r="27" spans="4:20" ht="21.75" customHeight="1">
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
+    </row>
+    <row r="25" spans="4:19" ht="12.75">
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="103"/>
+    </row>
+    <row r="26" spans="4:19" ht="12.75">
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+    </row>
+    <row r="27" spans="4:19" ht="21.75" customHeight="1">
       <c r="D27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="32"/>
       <c r="H27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-    </row>
-    <row r="28" spans="4:20" ht="33" customHeight="1">
+      <c r="J27" s="96"/>
+    </row>
+    <row r="28" spans="4:19" ht="33" customHeight="1">
       <c r="D28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="2"/>
       <c r="H28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-    </row>
-    <row r="29" spans="4:20" ht="15">
+      <c r="J28" s="96"/>
+    </row>
+    <row r="29" spans="4:19" ht="15">
       <c r="D29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="96"/>
       <c r="H29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="43"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-    </row>
-    <row r="30" spans="4:20" ht="15" customHeight="1">
+      <c r="I29" s="107"/>
+      <c r="J29" s="96"/>
+    </row>
+    <row r="30" spans="4:19" ht="15" customHeight="1">
       <c r="D30" s="22"/>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="96"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-    </row>
-    <row r="31" spans="4:20" ht="15">
+      <c r="J30" s="96"/>
+    </row>
+    <row r="31" spans="4:19" ht="15">
       <c r="D31" s="22"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="96"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="43"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-    </row>
-    <row r="32" spans="4:20" ht="93" customHeight="1">
+      <c r="I31" s="72"/>
+      <c r="J31" s="96"/>
+    </row>
+    <row r="32" spans="4:19" ht="93" customHeight="1">
       <c r="D32" s="22"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="96"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="43"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-    </row>
-    <row r="33" spans="4:19" ht="40.5" customHeight="1">
+      <c r="I32" s="72"/>
+      <c r="J32" s="96"/>
+    </row>
+    <row r="33" spans="4:18" ht="40.5" customHeight="1">
       <c r="D33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="2"/>
       <c r="H33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-    </row>
-    <row r="34" spans="4:19" ht="52.5" customHeight="1">
+      <c r="J33" s="96"/>
+    </row>
+    <row r="34" spans="4:18" ht="52.5" customHeight="1">
       <c r="D34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="2"/>
       <c r="H34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="94"/>
-    </row>
-    <row r="35" spans="4:19" ht="48" customHeight="1">
+      <c r="J34" s="114"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="78"/>
+    </row>
+    <row r="35" spans="4:18" ht="48" customHeight="1">
       <c r="D35" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="97"/>
       <c r="H35" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-    </row>
-    <row r="36" spans="4:19" ht="54.75" customHeight="1">
+      <c r="J35" s="119"/>
+    </row>
+    <row r="36" spans="4:18" ht="54.75" customHeight="1">
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
       <c r="J36" s="38"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-    </row>
-    <row r="37" spans="4:19" ht="15.75" customHeight="1">
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-    </row>
-    <row r="38" spans="4:19" ht="28.5" customHeight="1">
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-    </row>
-    <row r="39" spans="4:19" ht="28.5" customHeight="1">
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-    </row>
-    <row r="40" spans="4:19" ht="15.75" customHeight="1">
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-    </row>
-    <row r="41" spans="4:19" ht="17.25" customHeight="1">
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-    </row>
-    <row r="42" spans="4:19" ht="15.75" customHeight="1">
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-    </row>
-    <row r="43" spans="4:19" ht="15.75" customHeight="1">
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-    </row>
-    <row r="44" spans="4:19" ht="12.75" customHeight="1">
-      <c r="D44" s="116" t="s">
+    </row>
+    <row r="38" spans="4:18" ht="12.75" customHeight="1">
+      <c r="D38" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-    </row>
-    <row r="45" spans="4:19" ht="12.75">
-      <c r="D45" s="119"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="103"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-    </row>
-    <row r="46" spans="4:19" ht="12.75">
-      <c r="D46" s="122"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="124"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-    </row>
-    <row r="47" spans="4:19" ht="15">
+      <c r="E38" s="99"/>
+      <c r="F38" s="100"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+    </row>
+    <row r="39" spans="4:18" ht="12.75">
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="103"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="93"/>
+    </row>
+    <row r="40" spans="4:18" ht="12.75">
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+    </row>
+    <row r="41" spans="4:18" ht="15">
+      <c r="D41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="96"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="93"/>
+    </row>
+    <row r="42" spans="4:18" ht="39.75" customHeight="1">
+      <c r="D42" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="96"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="93"/>
+    </row>
+    <row r="43" spans="4:18" ht="20.25" customHeight="1">
+      <c r="D43" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="96"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="93"/>
+    </row>
+    <row r="44" spans="4:18" ht="15" customHeight="1">
+      <c r="D44" s="22"/>
+      <c r="E44" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="96"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="93"/>
+    </row>
+    <row r="45" spans="4:18" ht="15">
+      <c r="D45" s="22"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="96"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="93"/>
+    </row>
+    <row r="46" spans="4:18" ht="123" customHeight="1">
+      <c r="D46" s="22"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="96"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="93"/>
+    </row>
+    <row r="47" spans="4:18" ht="52.5" customHeight="1">
       <c r="D47" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="103"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-    </row>
-    <row r="48" spans="4:19" ht="39.75" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="E47" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="114"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="76"/>
+    </row>
+    <row r="48" spans="4:18" ht="44.25" customHeight="1">
       <c r="D48" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="103"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-    </row>
-    <row r="49" spans="4:19" ht="20.25" customHeight="1">
-      <c r="D49" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="43"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="103"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-    </row>
-    <row r="50" spans="4:19" ht="15" customHeight="1">
-      <c r="D50" s="22"/>
-      <c r="E50" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="103"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-    </row>
-    <row r="51" spans="4:19" ht="15">
-      <c r="D51" s="22"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="43"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="103"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-    </row>
-    <row r="52" spans="4:19" ht="123" customHeight="1">
-      <c r="D52" s="22"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="43"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="103"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-    </row>
-    <row r="53" spans="4:19" ht="52.5" customHeight="1">
-      <c r="D53" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="110"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="94"/>
-    </row>
-    <row r="54" spans="4:19" ht="44.25" customHeight="1">
-      <c r="D54" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E48" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-    </row>
-    <row r="55" spans="4:19" ht="67.5" customHeight="1">
-      <c r="D55" s="23" t="s">
+      <c r="F48" s="81"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="91"/>
+    </row>
+    <row r="49" spans="4:11" ht="67.5" customHeight="1">
+      <c r="D49" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E49" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="129"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="114"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-    </row>
-    <row r="56" spans="4:19" ht="15.75" customHeight="1">
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-    </row>
-    <row r="57" spans="4:19" ht="12.75">
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="F49" s="83"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
+    </row>
+    <row r="50" spans="4:11" ht="15.75" customHeight="1">
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+    </row>
+    <row r="51" spans="4:11" ht="12.75">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="4:11" ht="12.75">
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="4:11" ht="12.75">
+      <c r="G53" s="21"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="4:11" ht="12.75" customHeight="1">
+      <c r="G54" s="21"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="4:11" ht="12.75">
+      <c r="G55" s="21"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="4:11" ht="15">
+      <c r="G56" s="21"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="4:11" ht="15">
       <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="72"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="4:19" ht="12.75">
+    <row r="58" spans="4:11" ht="15" customHeight="1">
       <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="72"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="4:19" ht="12.75">
+    <row r="59" spans="4:11" ht="15">
       <c r="G59" s="21"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="4:19" ht="12.75" customHeight="1">
+    <row r="60" spans="4:11" ht="15" customHeight="1">
       <c r="G60" s="21"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="4:19" ht="12.75">
+    <row r="61" spans="4:11" ht="15">
       <c r="G61" s="21"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="4:19" ht="15">
+    <row r="62" spans="4:11" ht="15">
       <c r="G62" s="21"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="4:19" ht="15">
+    <row r="63" spans="4:11" ht="15" customHeight="1">
       <c r="G63" s="21"/>
       <c r="H63" s="24"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="39"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="72"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="4:19" ht="15" customHeight="1">
+    <row r="64" spans="4:11" ht="15" customHeight="1">
       <c r="G64" s="21"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="39"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="72"/>
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="4:11" ht="15">
       <c r="G65" s="21"/>
       <c r="H65" s="24"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="4:11" ht="15" customHeight="1">
+    <row r="66" spans="4:11" ht="15">
+      <c r="D66" s="24"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="72"/>
       <c r="G66" s="21"/>
       <c r="H66" s="24"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="39"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="72"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="4:11" ht="15">
+    <row r="67" spans="4:11" ht="12.75">
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="4:11" ht="15">
+    <row r="68" spans="4:11" ht="12.75">
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
       <c r="G68" s="21"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="4:11" ht="15" customHeight="1">
+    <row r="69" spans="4:11" ht="12.75">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
       <c r="G69" s="21"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="39"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="4:11" ht="15" customHeight="1">
+    <row r="70" spans="4:11" ht="12.75">
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="39"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="4:11" ht="15">
+    <row r="71" spans="4:11" ht="12.75">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
       <c r="G71" s="21"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
       <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="4:11" ht="15">
-      <c r="D72" s="24"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="4:11" ht="12.75">
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="4:11" ht="12.75">
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-    </row>
-    <row r="75" spans="4:11" ht="12.75">
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="4:11" ht="12.75">
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-    </row>
-    <row r="77" spans="4:11" ht="12.75">
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="L9:N11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H24:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J46"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I30:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E44:F46"/>
+    <mergeCell ref="D24:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E30:F32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="H9:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H38:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D38:F40"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I60:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="I66:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="H59:J61"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H44:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D44:F46"/>
-    <mergeCell ref="D9:F11"/>
-    <mergeCell ref="H9:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E50:F52"/>
-    <mergeCell ref="D24:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E30:F32"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H24:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J52"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L9:N11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1" xr:uid="{C630B3A2-1F0C-48D8-8041-4F8EBFA60ACD}"/>
     <hyperlink ref="I20" r:id="rId2" xr:uid="{B7DEFBE8-71E1-4D4F-AA6D-9831C8231B3F}"/>
     <hyperlink ref="I35" r:id="rId3" xr:uid="{ABF466C5-0CCF-48CB-80FE-861B78C9ED8A}"/>
-    <hyperlink ref="E55" r:id="rId4" xr:uid="{43C87A52-5B6C-4FD1-8EED-53708B63013F}"/>
+    <hyperlink ref="E49" r:id="rId4" xr:uid="{43C87A52-5B6C-4FD1-8EED-53708B63013F}"/>
     <hyperlink ref="E35" r:id="rId5" display="https://drive.google.com/file/d/1l_aXonPVWfEkRVIL0p9wX8FKE8vDZvcn/view?usp=drive_link" xr:uid="{C456E75E-603F-41EC-89FB-2D4E1309FB26}"/>
-    <hyperlink ref="E55:F55" r:id="rId6" display="https://drive.google.com/file/d/1jzrPMrua4RjVk1RK7XEDRSQmrj96Rje3/view?usp=drive_link" xr:uid="{34FA2547-03A0-4F6B-9EA2-64E53A18307B}"/>
+    <hyperlink ref="E49:F49" r:id="rId6" display="https://drive.google.com/file/d/1jzrPMrua4RjVk1RK7XEDRSQmrj96Rje3/view?usp=drive_link" xr:uid="{34FA2547-03A0-4F6B-9EA2-64E53A18307B}"/>
     <hyperlink ref="E35:F35" r:id="rId7" display="https://drive.google.com/file/d/1l_aXonPVWfEkRVIL0p9wX8FKE8vDZvcn/view?usp=drive_linkhttps://drive.google.com/file/d/1l_aXonPVWfEkRVIL0p9wX8FKE8vDZvcn/view?usp=drive_link" xr:uid="{50EC97F9-68EC-463D-B981-B4043DEE51D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToWidth="0" orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10EBA71-3C1B-488B-9B88-EB5B1BEAF284}">
-  <dimension ref="C4:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:7" ht="13.5" thickBot="1"/>
-    <row r="5" spans="3:7" ht="32.25" thickBot="1">
-      <c r="C5" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C6" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-    </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C7" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C8" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C9" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C10" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C11" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-    </row>
-    <row r="12" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C12" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-    </row>
-    <row r="13" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-    </row>
-    <row r="14" spans="3:7" ht="31.5">
-      <c r="C14" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="15">
-      <c r="C15" s="73"/>
-      <c r="D15" s="74">
-        <f>([1]Register!H4)+([1]Login!I4)+([1]Logout!H4)+([1]ForgotPassword!H4)+([1]AddtoCart!H4)+([1]ProductDetails!H4)+([1]MyAccount!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="75">
-        <f>([1]Register!H5)+([1]Login!I5)+([1]Logout!H5)+([1]ForgotPassword!H5)+([1]AddtoCart!H5)+([1]ProductDetails!H5)+([1]MyAccount!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="76" t="e">
-        <f>([1]Register!H6)+([1]Login!I6)+([1]Logout!H6)+([1]ForgotPassword!H6)+([1]AddtoCart!H6)+([1]ProductDetails!H6)+([1]MyAccount!H6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="77" t="e">
-        <f>SUM(D15:F15)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="19.5" thickBot="1">
-      <c r="C16" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="79">
-        <f>D15</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="80">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="79" t="e">
-        <f>F15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="81" t="e">
-        <f>G15</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13479,7 +13185,7 @@
   <dimension ref="B4:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
